--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H2">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I2">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J2">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N2">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O2">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P2">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q2">
-        <v>0.184266186795</v>
+        <v>0.02297387593777778</v>
       </c>
       <c r="R2">
-        <v>1.658395681155</v>
+        <v>0.20676488344</v>
       </c>
       <c r="S2">
-        <v>0.01428909688067622</v>
+        <v>0.001775423779774548</v>
       </c>
       <c r="T2">
-        <v>0.01618110021089366</v>
+        <v>0.002148707673646395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H3">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I3">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J3">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N3">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O3">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P3">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q3">
-        <v>2.64960286513</v>
+        <v>2.017685729511111</v>
       </c>
       <c r="R3">
-        <v>23.84642578617</v>
+        <v>18.1591715656</v>
       </c>
       <c r="S3">
-        <v>0.205465976659518</v>
+        <v>0.1559269856765966</v>
       </c>
       <c r="T3">
-        <v>0.2326714967376904</v>
+        <v>0.1887107261199351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H4">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I4">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J4">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N4">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O4">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P4">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q4">
-        <v>0.001537333401</v>
+        <v>0.001915557431111111</v>
       </c>
       <c r="R4">
-        <v>0.013836000609</v>
+        <v>0.01724001688</v>
       </c>
       <c r="S4">
-        <v>0.0001192139821573848</v>
+        <v>0.0001480344990078969</v>
       </c>
       <c r="T4">
-        <v>0.0001349989721489693</v>
+        <v>0.0001791588394873586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H5">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I5">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J5">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N5">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O5">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P5">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q5">
-        <v>1.5319996909365</v>
+        <v>0.10267443596</v>
       </c>
       <c r="R5">
-        <v>9.191998145618999</v>
+        <v>0.6160466157600001</v>
       </c>
       <c r="S5">
-        <v>0.1188003745326957</v>
+        <v>0.007934692242268442</v>
       </c>
       <c r="T5">
-        <v>0.08968706613431432</v>
+        <v>0.00640197730187352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H6">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I6">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J6">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N6">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O6">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P6">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q6">
-        <v>0.05394350142</v>
+        <v>0.06665332335233333</v>
       </c>
       <c r="R6">
-        <v>0.48549151278</v>
+        <v>0.399919940114</v>
       </c>
       <c r="S6">
-        <v>0.004183100173070877</v>
+        <v>0.005150976509198533</v>
       </c>
       <c r="T6">
-        <v>0.004736979786609386</v>
+        <v>0.004155981566456459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H7">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I7">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J7">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N7">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O7">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P7">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q7">
-        <v>0.7756651309911111</v>
+        <v>5.853842848143334</v>
       </c>
       <c r="R7">
-        <v>6.980986178919999</v>
+        <v>35.12305708886</v>
       </c>
       <c r="S7">
-        <v>0.06014969103379277</v>
+        <v>0.4523856498487795</v>
       </c>
       <c r="T7">
-        <v>0.06811404432342492</v>
+        <v>0.3649999991930636</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H8">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I8">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J8">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N8">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O8">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P8">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q8">
-        <v>0.0004500508093333333</v>
+        <v>0.005557541496333333</v>
       </c>
       <c r="R8">
-        <v>0.004050457283999999</v>
+        <v>0.03334524897799999</v>
       </c>
       <c r="S8">
-        <v>3.489961846849939E-05</v>
+        <v>0.0004294874472377967</v>
       </c>
       <c r="T8">
-        <v>3.952063790150601E-05</v>
+        <v>0.0003465249570750717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H9">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I9">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J9">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N9">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O9">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P9">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q9">
-        <v>0.4484893780073332</v>
+        <v>0.2978858421015</v>
       </c>
       <c r="R9">
-        <v>2.690936268044</v>
+        <v>1.191543368406</v>
       </c>
       <c r="S9">
-        <v>0.03477853578980609</v>
+        <v>0.02302065220329235</v>
       </c>
       <c r="T9">
-        <v>0.02625568186720243</v>
+        <v>0.01238255905248726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H10">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I10">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J10">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N10">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O10">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P10">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q10">
-        <v>0.30587053815</v>
+        <v>0.04894901124777778</v>
       </c>
       <c r="R10">
-        <v>2.75283484335</v>
+        <v>0.44054110123</v>
       </c>
       <c r="S10">
-        <v>0.02371902207664568</v>
+        <v>0.003782785229672597</v>
       </c>
       <c r="T10">
-        <v>0.02685963125112773</v>
+        <v>0.00457811804896851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H11">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I11">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J11">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,25 +1119,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N11">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O11">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P11">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q11">
-        <v>4.398177811877777</v>
+        <v>4.298957726411111</v>
       </c>
       <c r="R11">
-        <v>39.5836003069</v>
+        <v>38.6906195377</v>
       </c>
       <c r="S11">
-        <v>0.3410608855887358</v>
+        <v>0.3322239484703201</v>
       </c>
       <c r="T11">
-        <v>0.3862203758440961</v>
+        <v>0.4020742290260018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H12">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I12">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J12">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N12">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O12">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P12">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q12">
-        <v>0.002551878903333333</v>
+        <v>0.004081359301111111</v>
       </c>
       <c r="R12">
-        <v>0.02296691013</v>
+        <v>0.03673223371</v>
       </c>
       <c r="S12">
-        <v>0.0001978878790065309</v>
+        <v>0.0003154079170890483</v>
       </c>
       <c r="T12">
-        <v>0.0002240899916534363</v>
+        <v>0.0003817226171568594</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H13">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I13">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J13">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N13">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O13">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P13">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q13">
-        <v>2.543025272638333</v>
+        <v>0.218762046695</v>
       </c>
       <c r="R13">
-        <v>15.25815163583</v>
+        <v>1.31257228017</v>
       </c>
       <c r="S13">
-        <v>0.1972013157854265</v>
+        <v>0.01690595617676265</v>
       </c>
       <c r="T13">
-        <v>0.1488750142429372</v>
+        <v>0.01364029560384823</v>
       </c>
     </row>
   </sheetData>
